--- a/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura)-Educação a Distância.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura)-Educação a Distância.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="482">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2232,11 +2232,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3142,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3797,6 +3792,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3824,14 +3820,13 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3840,6 +3835,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3855,14 +3851,13 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3870,6 +3865,7 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3885,20 +3881,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3914,19 +3910,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3954,14 +3950,13 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3970,6 +3965,7 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3985,14 +3981,13 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4000,6 +3995,7 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4015,20 +4011,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4044,21 +4040,19 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4134,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7706943512414637</v>
+        <v>0.770083445308883</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7833930111554049</v>
+        <v>0.7930814839859428</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9016373583344919</v>
+        <v>0.9143190036667094</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23158966687438584</v>
+        <v>0.24208070390398426</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.616656209174541</v>
+        <v>3.8328202775824303</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.04739405623632021</v>
+        <v>0.04549916039356741</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.66025641025641</v>
+        <v>2.184294871794872</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7608772159538405</v>
+        <v>0.7259837699436207</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18875878482872332</v>
+        <v>0.17924162160811208</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7581308485486659</v>
+        <v>0.7645346561201234</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7662321419527189</v>
+        <v>0.7902747450129675</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8943619530472952</v>
+        <v>0.9122542400012462</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2295703805739663</v>
+        <v>0.2551534730501891</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.2777480546437796</v>
+        <v>3.768142969056496</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05017339571111165</v>
+        <v>0.0469039172204724</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0441775239977999</v>
+        <v>0.06828175332413064</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.185979146863477</v>
+        <v>0.17490515040228077</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7517372777185939</v>
+        <v>0.7609356031267338</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7605817465545546</v>
+        <v>0.7886949810661165</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8841567534433534</v>
+        <v>0.9054855114081566</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.224083925609146</v>
+        <v>0.25335119355516184</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.1767909739925617</v>
+        <v>3.7324952575447146</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05124746410761262</v>
+        <v>0.04738411863086341</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.040715642811950954</v>
+        <v>0.06442257215968519</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19153842279396968</v>
+        <v>0.185979146863477</v>
       </c>
     </row>
     <row r="13">
@@ -4266,25 +4260,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7529092664388496</v>
+        <v>0.7581133979551189</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7611547170103631</v>
+        <v>0.7754842837635432</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.88887884946728</v>
+        <v>0.8983794552039992</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.22463193534662299</v>
+        <v>0.23896663396064613</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.186810756666222</v>
+        <v>3.4540311776963244</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.051062240512361676</v>
+        <v>0.04870142063249879</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0451261605409366</v>
+        <v>0.05278079317119368</v>
       </c>
       <c r="I13" t="n" s="65">
         <v>0.185979146863477</v>
@@ -4295,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7576251122540616</v>
+        <v>0.7435461531164027</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7634978668216381</v>
+        <v>0.7700813132836145</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8813198538467268</v>
+        <v>0.899808320839397</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22689242995584466</v>
+        <v>0.23341548820652716</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.2282916714574985</v>
+        <v>3.349363743685358</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.04958281633033192</v>
+        <v>0.05002609655688209</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03933908655147172</v>
+        <v>0.05524265483288344</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.18514420319173194</v>
+        <v>0.17490515040228077</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7557285139502673</v>
+        <v>0.7371440479711743</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7739480078291096</v>
+        <v>0.764512992111496</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8756146652602907</v>
+        <v>0.8936705945667037</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23736950744452662</v>
+        <v>0.22788154954887987</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.4237610577836484</v>
+        <v>3.2465187738657306</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05011667905116649</v>
+        <v>0.05221714567046056</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03873323590232904</v>
+        <v>0.05479097465272978</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19348603503712675</v>
+        <v>0.17708663862748664</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.752269041421621</v>
+        <v>0.7571309175889402</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.770366747415223</v>
+        <v>0.7703810888200113</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8743067520885588</v>
+        <v>0.8962413311864483</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.23370419742986803</v>
+        <v>0.233718716581569</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.3547700027931078</v>
+        <v>3.3550419904924205</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05126209140146122</v>
+        <v>0.04883774204336138</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03944349755470762</v>
+        <v>0.057023990727046184</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.19348603503712675</v>
+        <v>0.17708663862748664</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7430699766535188</v>
+        <v>0.7377205636124777</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7640315054557023</v>
+        <v>0.7664463787875779</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8719989707956779</v>
+        <v>0.8923713165702675</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.22741165253962942</v>
+        <v>0.22978205902896495</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.2378538793121496</v>
+        <v>3.2816719980996494</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.053346254756725775</v>
+        <v>0.051318471236811485</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04030127576107467</v>
+        <v>0.054379894429058495</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.185979146863477</v>
+        <v>0.1813966045887375</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7511274917305647</v>
+        <v>0.7471384671954615</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7670269834275856</v>
+        <v>0.7700151779324654</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8719484748792986</v>
+        <v>0.8964877931044607</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.23035709960022352</v>
+        <v>0.23334866528342155</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.292342584185806</v>
+        <v>3.3481130233296525</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.05177570973952847</v>
+        <v>0.049429120741057764</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03898345920306093</v>
+        <v>0.05455044450539536</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.185979146863477</v>
+        <v>0.1813966045887375</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7636588601839568</v>
+        <v>0.7629215333274787</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7778517548547771</v>
+        <v>0.7891440888352719</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8986059261833184</v>
+        <v>0.9146337969532512</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24145770358119592</v>
+        <v>0.2538616962046733</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.5014985346666987</v>
+        <v>3.7425751285614357</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.049201472018242154</v>
+        <v>0.04690674643329224</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04755811481034532</v>
+        <v>0.06971061773748986</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.19803335403617353</v>
+        <v>0.1813966045887375</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7647679335451749</v>
+        <v>0.7658348926802423</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7773324255423536</v>
+        <v>0.7905516234160958</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8992695422619086</v>
+        <v>0.9152850200196301</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24090813179754045</v>
+        <v>0.25547124600983145</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.490999654690226</v>
+        <v>3.7744461728945584</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.048732815765937985</v>
+        <v>0.04609542867176425</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04705040190114045</v>
+        <v>0.06863835093109082</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19153842279396968</v>
+        <v>0.1813966045887375</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7475147479703289</v>
+        <v>0.7496969626331617</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7621529552319098</v>
+        <v>0.7766335449970632</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8810164176218646</v>
+        <v>0.8983167186231655</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2255911268234055</v>
+        <v>0.24017133904319468</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.2043826988686694</v>
+        <v>3.476947982125837</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.05222407815568617</v>
+        <v>0.04929253941708856</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04497275910755075</v>
+        <v>0.06761343841237791</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1813966045887375</v>
+        <v>0.17470327593212343</v>
       </c>
     </row>
     <row r="22">
@@ -4527,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7581417697966029</v>
+        <v>0.7583028867839423</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7736853117372303</v>
+        <v>0.7855762863813917</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8888145004351509</v>
+        <v>0.9030227652507576</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23709791179066048</v>
+        <v>0.24984638637475184</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.418626151383153</v>
+        <v>3.6636632820317723</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05012910217980944</v>
+        <v>0.047654783607623014</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04304029757324198</v>
+        <v>0.06476809027246126</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.19153842279396968</v>
+        <v>0.1813966045887375</v>
       </c>
     </row>
     <row r="23">
@@ -4598,16 +4592,16 @@
         <v>52.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.48704425623670583</v>
+        <v>0.3958787989369557</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.5607349934592363</v>
+        <v>0.4440363029812294</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5107715466356336</v>
+        <v>0.3756801916489897</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.402942202362351</v>
+        <v>0.2996518757693567</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.576923076923077</v>
@@ -4624,16 +4618,16 @@
         <v>52.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5541283236526067</v>
+        <v>0.4480621202889343</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6069841183401641</v>
+        <v>0.458987721680644</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5839505179417025</v>
+        <v>0.4159510345583011</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4640594349059515</v>
+        <v>0.3410624913165307</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>3.769230769230769</v>
@@ -4650,22 +4644,22 @@
         <v>52.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5411666424109158</v>
+        <v>0.5862202695631162</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6023645651045958</v>
+        <v>0.5783196976020755</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5622714761778631</v>
+        <v>0.5877090566149015</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.44879231783786055</v>
+        <v>0.5462004050581852</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3653846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0851736312474383</v>
+        <v>0.5048781642974013</v>
       </c>
     </row>
     <row r="30">
@@ -4676,22 +4670,22 @@
         <v>52.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.49405573235922423</v>
+        <v>0.6386818298899668</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5833092920466889</v>
+        <v>0.624371103424708</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5656703346307214</v>
+        <v>0.6277972624405788</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3837513676854034</v>
+        <v>0.4962815080362142</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.4615384615384617</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2120560794237927</v>
+        <v>1.7320508075688772</v>
       </c>
     </row>
     <row r="31">
@@ -4702,22 +4696,22 @@
         <v>52.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5616575134264293</v>
+        <v>0.6938827379037158</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.49499075698748657</v>
+        <v>0.6702797619627713</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.49443678106692923</v>
+        <v>0.6863063921329401</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.41003663825280157</v>
+        <v>0.5462645572078877</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.5</v>
+        <v>1.7884615384615385</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7320508075688772</v>
+        <v>1.9537449053943685</v>
       </c>
     </row>
     <row r="32">
@@ -4728,22 +4722,22 @@
         <v>52.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6124085884008055</v>
+        <v>0.6195751025207874</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5258881910650879</v>
+        <v>0.6218555699520678</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5273654609614539</v>
+        <v>0.626720107874065</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.45006554651781355</v>
+        <v>0.582961700903256</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.7884615384615385</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.9537449053943685</v>
+        <v>0.4912507507890747</v>
       </c>
     </row>
     <row r="33">
@@ -4754,16 +4748,16 @@
         <v>52.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6393962047654306</v>
+        <v>0.6712458079741647</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.5789324056469215</v>
+        <v>0.6545134432217771</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.5868816057206703</v>
+        <v>0.6695158859811694</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5039181918954716</v>
+        <v>0.5365115337881612</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>1.9423076923076923</v>
@@ -4780,16 +4774,16 @@
         <v>52.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6212881682816058</v>
+        <v>0.6501631018177887</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.554103194469747</v>
+        <v>0.6249254555686606</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5617660158506099</v>
+        <v>0.6330718231302304</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.45918746526321225</v>
+        <v>0.48688187328113547</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.0576923076923075</v>
@@ -4806,16 +4800,16 @@
         <v>52.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.42556088263825953</v>
+        <v>0.43137066863972356</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.46052852319992876</v>
+        <v>0.4547526744079721</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.383945534331134</v>
+        <v>0.3757031646500808</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.31677878521676706</v>
+        <v>0.31753709019130766</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>3.2884615384615383</v>
@@ -4832,16 +4826,16 @@
         <v>52.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.424772124432301</v>
+        <v>0.4156007067047191</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.465161244003488</v>
+        <v>0.4414001099911441</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.38610220129696193</v>
+        <v>0.3593915138570189</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.30539807815149544</v>
+        <v>0.2891356229376425</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.9423076923076925</v>
@@ -4858,16 +4852,16 @@
         <v>52.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5882749345318427</v>
+        <v>0.5656773055407779</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5942788764989497</v>
+        <v>0.5683256594142176</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5718389007299185</v>
+        <v>0.5355673026770762</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4820029621177051</v>
+        <v>0.4498637491101151</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.173076923076923</v>
@@ -4884,16 +4878,16 @@
         <v>52.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4909676637033987</v>
+        <v>0.48765339472238484</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.49728022466621863</v>
+        <v>0.48806303422767555</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.46036519098858414</v>
+        <v>0.44603217555786034</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.37718860010462235</v>
+        <v>0.36746772335637534</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.0576923076923075</v>
@@ -4998,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.019230769230769232</v>
+        <v>0.5</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07692307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.4423076923076923</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.34615384615384615</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11538461538461539</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5024,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.5</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.019230769230769232</v>
       </c>
-      <c r="C46" t="n" s="110">
+      <c r="E46" t="n" s="112">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.038461538461538464</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.28846153846153844</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,19 +5047,19 @@
         <v>0.5</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.09615384615384616</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.019230769230769232</v>
+        <v>0.038461538461538464</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.21153846153846154</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="F47" t="n" s="113">
         <v>0.1346153846153846</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.038461538461538464</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5076,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.5</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.019230769230769232</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.038461538461538464</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.19230769230769232</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.1346153846153846</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11538461538461539</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5329,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.820754035793491</v>
+        <v>0.8549219233679575</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8214056616640388</v>
+        <v>0.9627806236864472</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8072344127848803</v>
+        <v>0.9474438284568784</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5348448665190001</v>
+        <v>0.896077716233109</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.599281641945777</v>
+        <v>25.867725874166943</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.04007708704894645</v>
+        <v>0.011421003173908479</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.543269230769231</v>
+        <v>1.2628205128205128</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8726806148329863</v>
+        <v>1.3517301726037636</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5323047334664489</v>
+        <v>0.8894257891742917</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.79380914642674</v>
+        <v>0.9378726904209382</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.791384697564109</v>
+        <v>0.941477346472533</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7506624817303457</v>
+        <v>0.8894257891742917</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5584022069828971</v>
+        <v>0.8894257891742918</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.7935122127836616</v>
+        <v>16.08740017283493</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.049036810319097825</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.020891977712546243</v>
-      </c>
+        <v>0.016659640192513887</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6295596272410376</v>
+        <v>0.8894257891742917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7765216044602756</v>
+        <v>0.6186120882635113</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7790091837307354</v>
+        <v>0.9606786957392937</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7101340171543291</v>
+        <v>0.9243327273298291</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5402351639939634</v>
+        <v>0.924332727329829</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.525074918867025</v>
+        <v>24.43150637552217</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.05207879389660623</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.0066768777855205335</v>
-      </c>
+        <v>0.021870866293157994</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5218927535084414</v>
+        <v>0.9243327273298291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7866639394559215</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7892205817261155</v>
+        <v>0.9330343736592528</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.725448529605351</v>
+        <v>0.8744746321952062</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5551796812312912</v>
+        <v>0.8744746321952062</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.7442962324747056</v>
+        <v>13.933034373659247</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04978174104977429</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.008609601073974387</v>
-      </c>
+        <v>0.029535058990616682</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5427167134244564</v>
+        <v>0.8744746321952062</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7329535232383808</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7390131873468894</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6630398371820782</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.48556241386784854</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.8316112214035307</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.0647443930832093</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.006662942651019039</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5218927535084414</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>52.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9433398991483727</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.967035872117646</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9464645878877757</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9267918328145723</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.5048781642974013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>52.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7609021317380958</v>
+        <v>0.9645083361047373</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7850331501166318</v>
+        <v>0.9549749272057656</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6698222910476936</v>
+        <v>0.913624019805957</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6047641543821586</v>
+        <v>0.8975067994822267</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.576923076923077</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.9361195215744087</v>
+        <v>1.7320508075688772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>52.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8030886761619294</v>
+        <v>0.9767607600637285</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8019185145110577</v>
+        <v>0.9722017528915523</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7246019273555979</v>
+        <v>0.9570431424641109</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6385158600023446</v>
+        <v>0.9176607063496354</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.769230769230769</v>
+        <v>1.7884615384615385</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0776769608634433</v>
+        <v>1.9537449053943685</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>52.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7904731517066621</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7880283277919108</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.6969245872427616</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6165109423936755</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3653846153846154</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0851736312474383</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>52.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8705507554029921</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8527341210402646</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8086304756946245</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7285236444836127</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.4615384615384617</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2120560794237927</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.019230769230769232</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.057692307692307696</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.038461538461538464</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.38461538461538464</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4230769230769231</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1346153846153846</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.057692307692307696</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.36538461538461536</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.4423076923076923</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.28846153846153844</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5876,31 +5783,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.944316877152698</v>
+        <v>0.8482876712328766</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9482056734262854</v>
+        <v>0.9543243260538035</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.9015124435165232</v>
+        <v>0.9381392208469429</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.9015124435165232</v>
+        <v>0.8744427978183061</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>18.307133930523882</v>
+        <v>20.893491953242947</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.014833594856023017</v>
+        <v>0.012581347716499675</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.0</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.8122675645417803</v>
+        <v>1.354656049173959</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.9015124435165232</v>
+        <v>0.8898902923009033</v>
       </c>
     </row>
     <row r="7">
@@ -5947,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.944316877152698</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.9482056734262854</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.9015124435165232</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.9015124435165232</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.8127246858151322</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.9015124435165232</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.9015124435165232</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>18.307133930523882</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.014833594856023017</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.9015124435165232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.5609804050068814</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.9082526402412738</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.8319256576374922</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.831925657637492</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>9.899496210351595</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03438017528045212</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.8319256576374922</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.8127246858151322</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.9015124435165232</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.8127246858151322</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.9015124435165232</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.6346712748409393</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9417375134696098</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8898902923009033</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8898902923009033</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>16.16370274513414</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.027269910610439024</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8898902923009033</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>52.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9718152160763641</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9750672908872811</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.925806980242549</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.9015124435165232</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>1.9423076923076923</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.7423610478646894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>52.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9781224317778446</v>
+        <v>0.9065968278232491</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9750672908872811</v>
+        <v>0.9478067441071407</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.925806980242549</v>
+        <v>0.9054328357839622</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.9015124435165233</v>
+        <v>0.8809763918432063</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.4912507507890747</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>52.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9743033213175857</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9720386635939737</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9590984471891867</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.9243235387902259</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>1.9423076923076923</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.7423610478646894</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>52.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9729218032502467</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9518538778978907</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.9169273582192292</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.903438886160743</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.0576923076923075</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.9744789487749304</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.38461538461538464</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.07692307692307693</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3269230769230769</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.17307692307692307</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.038461538461538464</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.38461538461538464</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.11538461538461539</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.019230769230769232</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.17307692307692307</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.15384615384615385</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.15384615384615385</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6249,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8341423948220064</v>
+        <v>0.6990852190659609</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8347961020672439</v>
+        <v>0.7035857052715233</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7164377870244817</v>
+        <v>0.5427167134244563</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>5.053125940206543</v>
+        <v>2.3736564591664737</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.04587392984315053</v>
+        <v>0.08230245096676031</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.1153846153846154</v>
+        <v>3.673076923076923</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1824508637778015</v>
+        <v>0.8849759905052448</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
     </row>
     <row r="7">
@@ -6320,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5132831026765365</v>
+        <v>0.29454143103024333</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5132831026765365</v>
+        <v>0.29454143103024333</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.5132831026765365</v>
+        <v>0.29454143103024333</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
     </row>
     <row r="13">
@@ -6405,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>52.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9303171414497519</v>
+        <v>0.859341290738926</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9264010435617185</v>
+        <v>0.8782700932584624</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.7841303749061818</v>
+        <v>0.6470155115817162</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>2.173076923076923</v>
+        <v>3.576923076923077</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.3094101927166852</v>
+        <v>0.9361195215744087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>52.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9223820890326114</v>
+        <v>0.8959139502075469</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9264010435617185</v>
+        <v>0.8782700932584624</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.7841303749061818</v>
+        <v>0.6470155115817162</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7164377870244818</v>
+        <v>0.5427167134244564</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0576923076923075</v>
+        <v>3.769230769230769</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2432320550423264</v>
+        <v>1.0776769608634433</v>
       </c>
     </row>
     <row r="19">
@@ -6473,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6493,19 +6487,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.19230769230769232</v>
+        <v>0.057692307692307696</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.057692307692307696</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.2692307692307692</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.34615384615384615</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="F23" t="n" s="458">
         <v>0.1346153846153846</v>
@@ -6516,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.17307692307692307</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.09615384615384616</v>
+        <v>0.057692307692307696</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.34615384615384615</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.2692307692307692</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.11538461538461539</v>
+        <v>0.36538461538461536</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6613,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9378726904209382</v>
+        <v>0.685132237312366</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.941477346472533</v>
+        <v>0.686800908525782</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.8894257891742918</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>16.08740017283493</v>
+        <v>2.192857282225924</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.016659640192513887</v>
+        <v>0.0868852812946638</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.6442307692307692</v>
+        <v>3.1153846153846154</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.7914189207505111</v>
+        <v>1.0271576268260427</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
     </row>
     <row r="7">
@@ -6684,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.7910782344483115</v>
+        <v>0.2735272346454478</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.7910782344483115</v>
+        <v>0.2735272346454478</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.7910782344483115</v>
+        <v>0.2735272346454478</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778197</v>
       </c>
     </row>
     <row r="13">
@@ -6769,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>52.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9684395625454448</v>
+        <v>0.8606303119287801</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.971963422453307</v>
+        <v>0.8726391901232203</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9166526123953946</v>
+        <v>0.6310806394286184</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.8894257891742919</v>
+        <v>0.5229983122778198</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.5</v>
+        <v>3.2884615384615383</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.7320508075688772</v>
+        <v>1.1260992618376553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>52.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9752815272103879</v>
+        <v>0.8841423281190373</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.971963422453307</v>
+        <v>0.8726391901232203</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9166526123953948</v>
+        <v>0.6310806394286185</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.8894257891742917</v>
+        <v>0.5229983122778198</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.7884615384615385</v>
+        <v>2.9423076923076925</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.9537449053943685</v>
+        <v>1.2273590576560132</v>
       </c>
     </row>
     <row r="19">
@@ -6852,61 +6846,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="567">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.09615384615384616</v>
+        <v>0.17307692307692307</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.019230769230769232</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.21153846153846154</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.1346153846153846</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="G23" t="n" s="573">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="H23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.5</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C24" t="n" s="569">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D24" t="n" s="570">
         <v>0.019230769230769232</v>
       </c>
-      <c r="D24" t="n" s="570">
-        <v>0.038461538461538464</v>
-      </c>
       <c r="E24" t="n" s="571">
-        <v>0.19230769230769232</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.1346153846153846</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="G24" t="n" s="573">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="H24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,7 +6921,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="576">
+      <c r="A1" t="s" s="575">
         <v>48</v>
       </c>
     </row>
@@ -6951,66 +6936,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="590">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="604">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="604">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="604">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="604">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="604">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="604">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="604">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="604">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="604">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="605">
-        <v>0.685132237312366</v>
-      </c>
-      <c r="B6" t="n" s="606">
-        <v>0.686800908525782</v>
-      </c>
-      <c r="C6" t="n" s="607">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="D6" t="n" s="608">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="E6" t="n" s="609">
-        <v>2.192857282225924</v>
-      </c>
-      <c r="F6" t="n" s="610">
-        <v>0.0868852812946638</v>
-      </c>
-      <c r="G6" t="n" s="611">
-        <v>3.1153846153846154</v>
-      </c>
-      <c r="H6" t="n" s="612">
-        <v>1.0271576268260427</v>
-      </c>
-      <c r="I6" t="n" s="613">
-        <v>0.5229983122778197</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8341423948220064</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.8347961020672439</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.7164377870244817</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>5.053125940206543</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.04587392984315053</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>2.1153846153846154</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.1824508637778015</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.7164377870244818</v>
       </c>
     </row>
     <row r="7">
@@ -7024,81 +7009,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="617">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="631">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="631">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="631">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="631">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="631">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="631">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="631">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="631">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="627">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="632">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="C11" t="n" s="633">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="D11" t="n" s="634">
-        <v>0.2735272346454478</v>
-      </c>
-      <c r="E11" t="n" s="635">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" t="n" s="638">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="I11" t="n" s="639">
-        <v>0.5229983122778197</v>
+      <c r="A11" t="s" s="626">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.5132831026765365</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.7164377870244818</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="627">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="632">
-        <v>0.2735272346454478</v>
-      </c>
-      <c r="C12" t="n" s="633">
-        <v>0.5229983122778197</v>
-      </c>
-      <c r="D12" s="634"/>
-      <c r="E12" s="635"/>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" t="n" s="638">
-        <v>0.2735272346454478</v>
-      </c>
-      <c r="I12" t="n" s="639">
-        <v>0.5229983122778197</v>
+      <c r="A12" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.5132831026765365</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.5132831026765365</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.7164377870244818</v>
       </c>
     </row>
     <row r="13">
@@ -7112,84 +7097,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="643">
+      <c r="A15" t="s" s="642">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="657">
+      <c r="B16" t="s" s="656">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="657">
+      <c r="C16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="657">
+      <c r="D16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="657">
+      <c r="E16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="657">
+      <c r="F16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="657">
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="657">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="653">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="658">
+      <c r="A17" t="s" s="652">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>52.0</v>
       </c>
-      <c r="C17" t="n" s="659">
-        <v>0.8606303119287801</v>
-      </c>
-      <c r="D17" t="n" s="660">
-        <v>0.8726391901232203</v>
-      </c>
-      <c r="E17" t="n" s="661">
-        <v>0.6310806394286184</v>
-      </c>
-      <c r="F17" t="n" s="662">
-        <v>0.5229983122778198</v>
-      </c>
-      <c r="G17" t="n" s="663">
-        <v>3.2884615384615383</v>
-      </c>
-      <c r="H17" t="n" s="664">
-        <v>1.1260992618376553</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9303171414497519</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9264010435617185</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.7841303749061818</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>2.173076923076923</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.3094101927166852</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="653">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="658">
+      <c r="A18" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>52.0</v>
       </c>
-      <c r="C18" t="n" s="659">
-        <v>0.8841423281190373</v>
-      </c>
-      <c r="D18" t="n" s="660">
-        <v>0.8726391901232203</v>
-      </c>
-      <c r="E18" t="n" s="661">
-        <v>0.6310806394286185</v>
-      </c>
-      <c r="F18" t="n" s="662">
-        <v>0.5229983122778198</v>
-      </c>
-      <c r="G18" t="n" s="663">
-        <v>2.9423076923076925</v>
-      </c>
-      <c r="H18" t="n" s="664">
-        <v>1.2273590576560132</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9223820890326114</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9264010435617185</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.7841303749061818</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7164377870244818</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>2.0576923076923075</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2432320550423264</v>
       </c>
     </row>
     <row r="19">
@@ -7203,74 +7188,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="668">
+      <c r="A21" t="s" s="667">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="682">
+      <c r="B22" t="s" s="681">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="682">
+      <c r="C22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="682">
+      <c r="D22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="682">
+      <c r="E22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="682">
+      <c r="F22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="682">
+      <c r="G22" t="s" s="681">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="678">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="683">
+      <c r="A23" t="s" s="677">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.057692307692307696</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
-      <c r="C23" t="n" s="684">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="682">
         <v>0.17307692307692307</v>
       </c>
-      <c r="D23" t="n" s="685">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.6346153846153846</v>
-      </c>
-      <c r="G23" t="n" s="688">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="678">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="683">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C24" t="n" s="684">
+      <c r="C24" t="n" s="683">
         <v>0.09615384615384616</v>
       </c>
-      <c r="D24" t="n" s="685">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G24" t="n" s="688">
+      <c r="D24" t="n" s="684">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,7 +7285,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="690">
+      <c r="A1" t="s" s="689">
         <v>49</v>
       </c>
     </row>
@@ -7315,66 +7300,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="704">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="718">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="718">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="718">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="718">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="718">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="718">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="718">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="718">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="718">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="719">
-        <v>0.7486641851997332</v>
-      </c>
-      <c r="B6" t="n" s="720">
-        <v>0.7593573283926665</v>
-      </c>
-      <c r="C6" t="n" s="721">
-        <v>0.8663001740151663</v>
-      </c>
-      <c r="D6" t="n" s="722">
-        <v>0.23986390661108817</v>
-      </c>
-      <c r="E6" t="n" s="723">
-        <v>3.1555389712084825</v>
-      </c>
-      <c r="F6" t="n" s="724">
-        <v>0.05251755148536166</v>
-      </c>
-      <c r="G6" t="n" s="725">
-        <v>2.792307692307692</v>
-      </c>
-      <c r="H6" t="n" s="726">
-        <v>0.7332030598671091</v>
-      </c>
-      <c r="I6" t="n" s="727">
-        <v>0.185979146863477</v>
+      <c r="A6" t="n" s="718">
+        <v>0.7409541780350359</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.7498720321043815</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.8597026825303191</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.24987207575823758</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>2.9979535611839796</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.04988978926640295</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>2.3995726495726495</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.740062744853649</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.18875878482872332</v>
       </c>
     </row>
     <row r="7">
@@ -7388,325 +7373,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="731">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="745">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="745">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="745">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="745">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="745">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="745">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="745">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="745">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="741">
+      <c r="A11" t="s" s="740">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.7162963413069751</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.7077126967942526</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8155598646063973</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.23234081175228516</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>2.421291274140904</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.056807071167462704</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.04435938893316376</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.18875878482872332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.6653954417506583</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.6890826119781546</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8164732212145287</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.21693675259616604</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>2.2162884371386107</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.06746658729786306</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.050158223383213116</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.1727888583492624</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.6766255635830299</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.6919220015620599</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8092226822873325</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.21920225587047013</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>2.245931241667171</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.06580688168352568</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.04667253247075636</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.18875878482872332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="746">
-        <v>0.732573424917101</v>
-      </c>
-      <c r="C11" t="n" s="747">
-        <v>0.7370289541092583</v>
-      </c>
-      <c r="D11" t="n" s="748">
-        <v>0.8501752167961216</v>
-      </c>
-      <c r="E11" t="n" s="749">
-        <v>0.23746261541796093</v>
-      </c>
-      <c r="F11" t="n" s="750">
-        <v>2.8027000144170864</v>
-      </c>
-      <c r="G11" t="n" s="751">
-        <v>0.05578632772160288</v>
-      </c>
-      <c r="H11" t="n" s="752">
-        <v>0.04605680415150871</v>
-      </c>
-      <c r="I11" t="n" s="753">
-        <v>0.18556167502760446</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="741">
+      <c r="B14" t="n" s="745">
+        <v>0.7393471314867962</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7507407160495794</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.8491792628226567</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.27351232029359035</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>3.011886675398244</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.04992076994897346</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.07308649165832852</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.19492225020111092</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>0.7378577881323697</v>
-      </c>
-      <c r="C12" t="n" s="747">
-        <v>0.7420685040820676</v>
-      </c>
-      <c r="D12" t="n" s="748">
-        <v>0.8472674994201631</v>
-      </c>
-      <c r="E12" t="n" s="749">
-        <v>0.24223278575690188</v>
-      </c>
-      <c r="F12" t="n" s="750">
-        <v>2.876998411695236</v>
-      </c>
-      <c r="G12" t="n" s="751">
-        <v>0.054152155152414456</v>
-      </c>
-      <c r="H12" t="n" s="752">
-        <v>0.04325690524108417</v>
-      </c>
-      <c r="I12" t="n" s="753">
-        <v>0.19492225020111092</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="741">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="746">
-        <v>0.7240414712092209</v>
-      </c>
-      <c r="C13" t="n" s="747">
-        <v>0.7288886275695006</v>
-      </c>
-      <c r="D13" t="n" s="748">
-        <v>0.8429741616677812</v>
-      </c>
-      <c r="E13" t="n" s="749">
-        <v>0.2300137910384627</v>
-      </c>
-      <c r="F13" t="n" s="750">
-        <v>2.688521034861252</v>
-      </c>
-      <c r="G13" t="n" s="751">
-        <v>0.0573144573404627</v>
-      </c>
-      <c r="H13" t="n" s="752">
-        <v>0.04757439476488797</v>
-      </c>
-      <c r="I13" t="n" s="753">
-        <v>0.18875878482872332</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="741">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="746">
-        <v>0.7328770204829527</v>
-      </c>
-      <c r="C14" t="n" s="747">
-        <v>0.7322342576554606</v>
-      </c>
-      <c r="D14" t="n" s="748">
-        <v>0.833313696514391</v>
-      </c>
-      <c r="E14" t="n" s="749">
-        <v>0.23303784505381278</v>
-      </c>
-      <c r="F14" t="n" s="750">
-        <v>2.73460768821308</v>
-      </c>
-      <c r="G14" t="n" s="751">
-        <v>0.053949630848450135</v>
-      </c>
-      <c r="H14" t="n" s="752">
-        <v>0.038625484433170314</v>
-      </c>
-      <c r="I14" t="n" s="753">
-        <v>0.18556167502760446</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="741">
+      <c r="B15" t="n" s="745">
+        <v>0.7524219265124127</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.764291576984347</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8533229754264188</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.2884163823670419</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>3.242529762857019</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.04698014367932337</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.0669154825241756</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.20943409887256026</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="745">
+        <v>0.7308553515450067</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.7419234718994364</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8545483038575257</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.26435561563345417</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>2.8748196411350295</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.05105326164148935</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.07751353656984601</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.20306574353123652</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.7270637060199687</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.7365790732940507</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8501827709943939</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.2589989216309626</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>2.7962056109394706</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.05142833769522603</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.07809288835104554</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.18368787572610723</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="746">
-        <v>0.7175185380212874</v>
-      </c>
-      <c r="C15" t="n" s="747">
-        <v>0.7323216786900348</v>
-      </c>
-      <c r="D15" t="n" s="748">
-        <v>0.8368829982479511</v>
-      </c>
-      <c r="E15" t="n" s="749">
-        <v>0.23311755416209007</v>
-      </c>
-      <c r="F15" t="n" s="750">
-        <v>2.7358273733419907</v>
-      </c>
-      <c r="G15" t="n" s="751">
-        <v>0.05933173479056709</v>
-      </c>
-      <c r="H15" t="n" s="752">
-        <v>0.04754319692228491</v>
-      </c>
-      <c r="I15" t="n" s="753">
+      <c r="B18" t="n" s="745">
+        <v>0.713870169289418</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7258010169750145</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8289547506950833</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.24861368322680807</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.6469865386367193</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.054064824828522984</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.07249131657468545</v>
+      </c>
+      <c r="I18" t="n" s="752">
         <v>0.17804994026043047</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="741">
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="746">
-        <v>0.721908664610705</v>
-      </c>
-      <c r="C16" t="n" s="747">
-        <v>0.7401329587127825</v>
-      </c>
-      <c r="D16" t="n" s="748">
-        <v>0.8419339404511581</v>
-      </c>
-      <c r="E16" t="n" s="749">
-        <v>0.24038592530466843</v>
-      </c>
-      <c r="F16" t="n" s="750">
-        <v>2.84812169733657</v>
-      </c>
-      <c r="G16" t="n" s="751">
-        <v>0.05887810720175948</v>
-      </c>
-      <c r="H16" t="n" s="752">
-        <v>0.04607817563910424</v>
-      </c>
-      <c r="I16" t="n" s="753">
-        <v>0.18556167502760446</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="741">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="746">
-        <v>0.7142955225576726</v>
-      </c>
-      <c r="C17" t="n" s="747">
-        <v>0.7411984910911756</v>
-      </c>
-      <c r="D17" t="n" s="748">
-        <v>0.824026876318525</v>
-      </c>
-      <c r="E17" t="n" s="749">
-        <v>0.24140033125405658</v>
-      </c>
-      <c r="F17" t="n" s="750">
-        <v>2.863965106757934</v>
-      </c>
-      <c r="G17" t="n" s="751">
-        <v>0.06079592836935675</v>
-      </c>
-      <c r="H17" t="n" s="752">
-        <v>0.039188742127601345</v>
-      </c>
-      <c r="I17" t="n" s="753">
-        <v>0.1883413129928508</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="741">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="746">
-        <v>0.724639311390424</v>
-      </c>
-      <c r="C18" t="n" s="747">
-        <v>0.7429019586263471</v>
-      </c>
-      <c r="D18" t="n" s="748">
-        <v>0.8261581379433628</v>
-      </c>
-      <c r="E18" t="n" s="749">
-        <v>0.24303381533820292</v>
-      </c>
-      <c r="F18" t="n" s="750">
-        <v>2.889566776382602</v>
-      </c>
-      <c r="G18" t="n" s="751">
-        <v>0.05868214268912102</v>
-      </c>
-      <c r="H18" t="n" s="752">
-        <v>0.038671965288081846</v>
-      </c>
-      <c r="I18" t="n" s="753">
-        <v>0.19492225020111092</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="741">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="746">
-        <v>0.7393140659393053</v>
-      </c>
-      <c r="C19" t="n" s="747">
-        <v>0.752127536499333</v>
-      </c>
-      <c r="D19" t="n" s="748">
-        <v>0.8596225197380525</v>
-      </c>
-      <c r="E19" t="n" s="749">
-        <v>0.25213967580163893</v>
-      </c>
-      <c r="F19" t="n" s="750">
-        <v>3.034332760796195</v>
-      </c>
-      <c r="G19" t="n" s="751">
-        <v>0.055002717078477446</v>
-      </c>
-      <c r="H19" t="n" s="752">
-        <v>0.0515439153963811</v>
-      </c>
-      <c r="I19" t="n" s="753">
-        <v>0.20306574353123652</v>
+      <c r="B19" t="n" s="745">
+        <v>0.7094789463564699</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7235067424891839</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8269975273514472</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.24647193845335988</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>2.6167247223411265</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.055651504341892005</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.07085387373944932</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.18368787572610723</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="741">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="746">
-        <v>0.7341301949246046</v>
-      </c>
-      <c r="C20" t="n" s="747">
-        <v>0.745767489079758</v>
-      </c>
-      <c r="D20" t="n" s="748">
-        <v>0.8559072926676925</v>
-      </c>
-      <c r="E20" t="n" s="749">
-        <v>0.2458147269830867</v>
-      </c>
-      <c r="F20" t="n" s="750">
-        <v>2.9334072435516343</v>
-      </c>
-      <c r="G20" t="n" s="751">
-        <v>0.05586624960819263</v>
-      </c>
-      <c r="H20" t="n" s="752">
-        <v>0.05241899446270057</v>
-      </c>
-      <c r="I20" t="n" s="753">
-        <v>0.18556167502760446</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7715,595 +7676,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="756">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.7026179345770169</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.6717369152242021</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.7009956207566165</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.661006740980402</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.5048781642974013</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.7928842536636541</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.7547574287507602</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.7785802574018561</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.6582512037185604</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.7843678461967358</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.7425474493341266</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.7787156477270849</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.6206796250738041</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>1.7884615384615385</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>1.9537449053943685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.38716830439684036</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.4498421700067107</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.36018281297285604</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.25839881521434677</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>3.576923076923077</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>0.9361195215744087</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.3200270770706818</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.36951640168621397</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.27625952832957046</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.1647292407634478</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>3.769230769230769</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>1.0776769608634433</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.4759388227263705</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.4991924299213868</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.3987923127465964</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.32944336146066255</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>3.2884615384615383</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.1260992618376553</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.5127803829833731</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5280624493353819</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.43387941937611624</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.35737500293945396</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>2.9423076923076925</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.2273590576560132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.5904661707263861</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.5840339187169535</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.5376358072133443</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.4385906888008314</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>2.173076923076923</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.3094101927166852</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="771">
+        <v>52.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.6066877937971624</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.5955768989880892</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.5520172497230201</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.46717645130561763</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.0576923076923075</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.2432320550423264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="757">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="771">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="771">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="771">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="771">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="771">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="771">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="771">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="767">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.019230769230769232</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.019230769230769232</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C25" t="n" s="773">
-        <v>0.5008125760719492</v>
-      </c>
-      <c r="D25" t="n" s="774">
-        <v>0.57741093807212</v>
-      </c>
-      <c r="E25" t="n" s="775">
-        <v>0.5255205314338347</v>
-      </c>
-      <c r="F25" t="n" s="776">
-        <v>0.3958766381711161</v>
-      </c>
-      <c r="G25" t="n" s="777">
-        <v>3.576923076923077</v>
-      </c>
-      <c r="H25" t="n" s="778">
-        <v>0.9361195215744087</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="767">
+      <c r="B40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.057692307692307696</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C26" t="n" s="773">
-        <v>0.4642342464286797</v>
-      </c>
-      <c r="D26" t="n" s="774">
-        <v>0.5468563079078609</v>
-      </c>
-      <c r="E26" t="n" s="775">
-        <v>0.50010907295749</v>
-      </c>
-      <c r="F26" t="n" s="776">
-        <v>0.33720945305804567</v>
-      </c>
-      <c r="G26" t="n" s="777">
-        <v>3.769230769230769</v>
-      </c>
-      <c r="H26" t="n" s="778">
-        <v>1.0776769608634433</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="767">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C27" t="n" s="773">
-        <v>0.5679430372560771</v>
-      </c>
-      <c r="D27" t="n" s="774">
-        <v>0.6251232958921582</v>
-      </c>
-      <c r="E27" t="n" s="775">
-        <v>0.5852462904759897</v>
-      </c>
-      <c r="F27" t="n" s="776">
-        <v>0.4544754420067313</v>
-      </c>
-      <c r="G27" t="n" s="777">
-        <v>3.3653846153846154</v>
-      </c>
-      <c r="H27" t="n" s="778">
-        <v>1.0851736312474383</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="767">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C28" t="n" s="773">
-        <v>0.5137500883678956</v>
-      </c>
-      <c r="D28" t="n" s="774">
-        <v>0.6057531590898154</v>
-      </c>
-      <c r="E28" t="n" s="775">
-        <v>0.5895090545156013</v>
-      </c>
-      <c r="F28" t="n" s="776">
-        <v>0.3762864547600181</v>
-      </c>
-      <c r="G28" t="n" s="777">
-        <v>3.4615384615384617</v>
-      </c>
-      <c r="H28" t="n" s="778">
-        <v>1.2120560794237927</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="767">
+      <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.019230769230769232</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.057692307692307696</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.36538461538461536</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.6346153846153846</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.019230769230769232</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C29" t="n" s="773">
-        <v>0.6141184654789702</v>
-      </c>
-      <c r="D29" t="n" s="774">
-        <v>0.6052425940258691</v>
-      </c>
-      <c r="E29" t="n" s="775">
-        <v>0.5739474622544873</v>
-      </c>
-      <c r="F29" t="n" s="776">
-        <v>0.4831644899052956</v>
-      </c>
-      <c r="G29" t="n" s="777">
-        <v>2.173076923076923</v>
-      </c>
-      <c r="H29" t="n" s="778">
-        <v>1.3094101927166852</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="767">
+      <c r="B44" t="n" s="796">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.057692307692307696</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C30" t="n" s="773">
-        <v>0.5855858395561087</v>
-      </c>
-      <c r="D30" t="n" s="774">
-        <v>0.5586861030877786</v>
-      </c>
-      <c r="E30" t="n" s="775">
-        <v>0.5206383363777106</v>
-      </c>
-      <c r="F30" t="n" s="776">
-        <v>0.4566002932598949</v>
-      </c>
-      <c r="G30" t="n" s="777">
-        <v>2.0576923076923075</v>
-      </c>
-      <c r="H30" t="n" s="778">
-        <v>1.2432320550423264</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="767">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C31" t="n" s="773">
-        <v>0.6670043628470296</v>
-      </c>
-      <c r="D31" t="n" s="774">
-        <v>0.5521884737752661</v>
-      </c>
-      <c r="E31" t="n" s="775">
-        <v>0.5580879965829343</v>
-      </c>
-      <c r="F31" t="n" s="776">
-        <v>0.5005372762598084</v>
-      </c>
-      <c r="G31" t="n" s="777">
-        <v>1.5</v>
-      </c>
-      <c r="H31" t="n" s="778">
-        <v>1.7320508075688772</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="767">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C32" t="n" s="773">
-        <v>0.664075067825136</v>
-      </c>
-      <c r="D32" t="n" s="774">
-        <v>0.5417254297906829</v>
-      </c>
-      <c r="E32" t="n" s="775">
-        <v>0.5457375517333272</v>
-      </c>
-      <c r="F32" t="n" s="776">
-        <v>0.46953320487924605</v>
-      </c>
-      <c r="G32" t="n" s="777">
-        <v>1.7884615384615385</v>
-      </c>
-      <c r="H32" t="n" s="778">
-        <v>1.9537449053943685</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="767">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C33" t="n" s="773">
-        <v>0.45870369844873876</v>
-      </c>
-      <c r="D33" t="n" s="774">
-        <v>0.4833991690875054</v>
-      </c>
-      <c r="E33" t="n" s="775">
-        <v>0.39237535775249144</v>
-      </c>
-      <c r="F33" t="n" s="776">
-        <v>0.324760728249445</v>
-      </c>
-      <c r="G33" t="n" s="777">
-        <v>3.2884615384615383</v>
-      </c>
-      <c r="H33" t="n" s="778">
-        <v>1.1260992618376553</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="767">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="772">
-        <v>52.0</v>
-      </c>
-      <c r="C34" t="n" s="773">
-        <v>0.5071769347425634</v>
-      </c>
-      <c r="D34" t="n" s="774">
-        <v>0.5239127059692167</v>
-      </c>
-      <c r="E34" t="n" s="775">
-        <v>0.43993479708825234</v>
-      </c>
-      <c r="F34" t="n" s="776">
-        <v>0.36677358300398355</v>
-      </c>
-      <c r="G34" t="n" s="777">
-        <v>2.9423076923076925</v>
-      </c>
-      <c r="H34" t="n" s="778">
-        <v>1.2273590576560132</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="782">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="796">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="796">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="796">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="796">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="796">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="796">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="796">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="792">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="797">
+      <c r="B45" t="n" s="796">
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="798">
-        <v>0.057692307692307696</v>
-      </c>
-      <c r="D39" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="800">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="F39" t="n" s="801">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="G39" t="n" s="802">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="H39" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="792">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="798">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.057692307692307696</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.36538461538461536</v>
-      </c>
-      <c r="H40" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="792">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="797">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="C41" t="n" s="798">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.4423076923076923</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="H41" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="792">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="797">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="C42" t="n" s="798">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E42" t="n" s="800">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="F42" t="n" s="801">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="G42" t="n" s="802">
-        <v>0.28846153846153844</v>
-      </c>
-      <c r="H42" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="792">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="797">
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="C43" t="n" s="798">
-        <v>0.057692307692307696</v>
-      </c>
-      <c r="D43" t="n" s="799">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="E43" t="n" s="800">
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="792">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="797">
-        <v>0.17307692307692307</v>
-      </c>
-      <c r="C44" t="n" s="798">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="G44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="792">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="797">
-        <v>0.5</v>
-      </c>
-      <c r="C45" t="n" s="798">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="D45" t="n" s="799">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.21153846153846154</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="H45" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="792">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="797">
-        <v>0.5</v>
-      </c>
-      <c r="C46" t="n" s="798">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="H46" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="792">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="n" s="798">
-        <v>0.17307692307692307</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.6346153846153846</v>
-      </c>
-      <c r="G47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="792">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="797">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G48" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="803">
+      <c r="H45" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
